--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2007.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2007.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.098*"exchange" + 0.081*"foreign" + 0.073*"currency" + 0.066*"account" + 0.038*"na" + 0.024*"rate" + 0.019*"domestic" + 0.019*"abroad" + 0.014*"hold" + 0.012*"arrangement"</t>
-  </si>
-  <si>
-    <t>0.065*"instrument" + 0.054*"legal" + 0.050*"fund" + 0.049*"nonresident" + 0.045*"reference" + 0.044*"hyperlink" + 0.043*"resident" + 0.038*"international" + 0.033*"monetary" + 0.029*"purchase"</t>
-  </si>
-  <si>
-    <t>0.099*"control" + 0.092*"yes" + 0.079*"requirement" + 0.070*"transaction" + 0.055*"payment" + 0.034*"transfer" + 0.034*"capital" + 0.023*"current" + 0.020*"repatriation" + 0.017*"direct"</t>
-  </si>
-  <si>
-    <t>0.035*"import" + 0.027*"export" + 0.018*"may" + 0.014*"foreign" + 0.013*"license" + 0.012*"must" + 0.012*"payment" + 0.010*"require" + 0.008*"subject" + 0.008*"good"</t>
-  </si>
-  <si>
-    <t>0.030*"bank" + 0.027*"credit" + 0.023*"security" + 0.020*"investment" + 0.019*"approval" + 0.017*"market" + 0.017*"company" + 0.016*"require" + 0.014*"financial" + 0.013*"may"</t>
+    <t>0.056*"yes" + 0.042*"import" + 0.021*"payment" + 0.021*"country" + 0.020*"export" + 0.018*"tax" + 0.016*"good" + 0.016*"limit" + 0.012*"must" + 0.012*"december"</t>
+  </si>
+  <si>
+    <t>0.059*"legal" + 0.057*"instrument" + 0.046*"reference" + 0.045*"hyperlink" + 0.024*"effective" + 0.024*"requirement" + 0.015*"state" + 0.015*"january" + 0.015*"surrender" + 0.014*"provide"</t>
+  </si>
+  <si>
+    <t>0.083*"foreign" + 0.055*"exchange" + 0.048*"currency" + 0.047*"account" + 0.039*"resident" + 0.038*"nonresident" + 0.032*"bank" + 0.029*"may" + 0.025*"abroad" + 0.020*"purchase"</t>
+  </si>
+  <si>
+    <t>0.039*"investment" + 0.027*"require" + 0.021*"export" + 0.020*"approval" + 0.019*"control" + 0.019*"credit" + 0.019*"requirement" + 0.017*"company" + 0.016*"license" + 0.014*"security"</t>
+  </si>
+  <si>
+    <t>0.065*"transaction" + 0.053*"fund" + 0.047*"international" + 0.042*"control" + 0.042*"capital" + 0.038*"monetary" + 0.038*"transfer" + 0.038*"payment" + 0.035*"redistribution" + 0.031*"exchange"</t>
   </si>
 </sst>
 </file>
